--- a/xlsx/Test.xlsx
+++ b/xlsx/Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
   <si>
     <t>login</t>
   </si>
@@ -295,46 +295,43 @@
     <t>32d23ffg</t>
   </si>
   <si>
+    <t>Petrovich2088</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>isPassed</t>
   </si>
   <si>
-    <t>Petrovich2088</t>
-  </si>
-  <si>
-    <t>w</t>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Email *</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Имя *</t>
   </si>
   <si>
     <t>Пользователь *</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>Email *</t>
+    <t>Фамилия *</t>
+  </si>
+  <si>
+    <t>Подтверждение *</t>
   </si>
   <si>
     <t>Пароль *</t>
   </si>
   <si>
-    <t>Подтверждение *</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>Имя *</t>
-  </si>
-  <si>
-    <t>Фамилия *</t>
-  </si>
-  <si>
     <t>IRC nick</t>
-  </si>
-  <si>
-    <t>Поиск</t>
   </si>
 </sst>
 </file>
@@ -669,7 +666,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -717,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>90</v>
@@ -735,7 +732,7 @@
         <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>81</v>
@@ -1125,36 +1122,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -1162,7 +1159,7 @@
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -1170,39 +1167,351 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/Test.xlsx
+++ b/xlsx/Test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Result" sheetId="2" r:id="rId2"/>
+    <sheet name="Result" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>login</t>
   </si>
@@ -181,9 +181,6 @@
     <t>dariw</t>
   </si>
   <si>
-    <t>dasd</t>
-  </si>
-  <si>
     <t>dascsdc</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Petrovich2004</t>
   </si>
   <si>
-    <t>Petrovich2005</t>
-  </si>
-  <si>
     <t>Petrovich2006</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>node</t>
   </si>
   <si>
-    <t>typescript</t>
-  </si>
-  <si>
     <t>anime</t>
   </si>
   <si>
@@ -301,12 +292,24 @@
     <t>w</t>
   </si>
   <si>
+    <t>pulemet</t>
+  </si>
+  <si>
+    <t>GaluaPulemet6</t>
+  </si>
+  <si>
+    <t>GaluaPulemet6@gmail.com</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>isPassed</t>
   </si>
   <si>
+    <t>IRC nick</t>
+  </si>
+  <si>
     <t>passed</t>
   </si>
   <si>
@@ -329,9 +332,6 @@
   </si>
   <si>
     <t>Пароль *</t>
-  </si>
-  <si>
-    <t>IRC nick</t>
   </si>
 </sst>
 </file>
@@ -339,10 +339,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,10 +379,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,8 +392,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -682,7 +695,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -703,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -714,28 +727,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -761,10 +774,10 @@
         <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,28 +785,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,13 +829,13 @@
         <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,13 +858,13 @@
         <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,10 +890,10 @@
         <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,13 +916,13 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,13 +945,13 @@
         <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,13 +974,13 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,13 +1003,13 @@
         <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,13 +1032,13 @@
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,10 +1061,10 @@
         <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
@@ -1077,13 +1090,13 @@
         <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,31 +1119,32 @@
         <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -1140,381 +1154,173 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
         <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
         <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/xlsx/Test.xlsx
+++ b/xlsx/Test.xlsx
@@ -8,11 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Result" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>login</t>
   </si>
@@ -43,15 +42,9 @@
     <t>searchValue</t>
   </si>
   <si>
-    <t>VasyaPupkin</t>
-  </si>
-  <si>
     <t>GaluaPulemet</t>
   </si>
   <si>
-    <t>DreamReal</t>
-  </si>
-  <si>
     <t>Magnifikate</t>
   </si>
   <si>
@@ -82,15 +75,6 @@
     <t>GaluaPulemet@gmail.com</t>
   </si>
   <si>
-    <t>VasyaPupkin@gmail.com</t>
-  </si>
-  <si>
-    <t>DreamReal@gmail.com</t>
-  </si>
-  <si>
-    <t>Magnifikate@gmail.com</t>
-  </si>
-  <si>
     <t>Helloworld@gmail.com</t>
   </si>
   <si>
@@ -115,9 +99,6 @@
     <t>ASAP@gmail.com</t>
   </si>
   <si>
-    <t>12321erdf3</t>
-  </si>
-  <si>
     <t>ed23d23d</t>
   </si>
   <si>
@@ -136,24 +117,15 @@
     <t>vasya</t>
   </si>
   <si>
-    <t>sasha</t>
-  </si>
-  <si>
     <t>galya</t>
   </si>
   <si>
-    <t>nastya</t>
-  </si>
-  <si>
     <t>vika</t>
   </si>
   <si>
     <t>roma</t>
   </si>
   <si>
-    <t>petya</t>
-  </si>
-  <si>
     <t>cscewcrec</t>
   </si>
   <si>
@@ -178,12 +150,6 @@
     <t>kukuw</t>
   </si>
   <si>
-    <t>dariw</t>
-  </si>
-  <si>
-    <t>dascsdc</t>
-  </si>
-  <si>
     <t>cdscdscs</t>
   </si>
   <si>
@@ -208,15 +174,6 @@
     <t>Petrovich2003</t>
   </si>
   <si>
-    <t>Petrovich2004</t>
-  </si>
-  <si>
-    <t>Petrovich2006</t>
-  </si>
-  <si>
-    <t>Petrovich2007</t>
-  </si>
-  <si>
     <t>Petrovich2008</t>
   </si>
   <si>
@@ -244,21 +201,12 @@
     <t>react</t>
   </si>
   <si>
-    <t>node</t>
-  </si>
-  <si>
-    <t>anime</t>
-  </si>
-  <si>
     <t>java</t>
   </si>
   <si>
     <t>.Net</t>
   </si>
   <si>
-    <t>dota</t>
-  </si>
-  <si>
     <t>mobilelegends</t>
   </si>
   <si>
@@ -283,15 +231,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>32d23ffg</t>
-  </si>
-  <si>
-    <t>Petrovich2088</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>pulemet</t>
   </si>
   <si>
@@ -301,44 +240,37 @@
     <t>GaluaPulemet6@gmail.com</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>isPassed</t>
-  </si>
-  <si>
-    <t>IRC nick</t>
-  </si>
-  <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>Email *</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>Имя *</t>
-  </si>
-  <si>
-    <t>Пользователь *</t>
-  </si>
-  <si>
-    <t>Фамилия *</t>
-  </si>
-  <si>
-    <t>Подтверждение *</t>
-  </si>
-  <si>
-    <t>Пароль *</t>
+    <t>GaluaPulemet7</t>
+  </si>
+  <si>
+    <t>GaluaPulemet7@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet8</t>
+  </si>
+  <si>
+    <t>GaluaPulemet8@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet9</t>
+  </si>
+  <si>
+    <t>GaluaPulemet9@gmail.com</t>
+  </si>
+  <si>
+    <t>Magnifikate77</t>
+  </si>
+  <si>
+    <t>Magnifikate77@gmail.com</t>
+  </si>
+  <si>
+    <t>Petrovich200777</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,23 +611,23 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="3" max="4" style="1" width="9.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
-    <col min="7" max="7" style="1" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="9.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -716,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -727,28 +659,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,28 +717,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -814,28 +746,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,28 +775,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -872,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>12342132</v>
@@ -884,16 +816,16 @@
         <v>12342132</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,28 +833,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,28 +862,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -971,16 +903,16 @@
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,28 +920,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,28 +949,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,28 +978,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,28 +1007,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,223 +1036,38 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/xlsx/Test.xlsx
+++ b/xlsx/Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>login</t>
   </si>
@@ -237,34 +237,46 @@
     <t>GaluaPulemet6</t>
   </si>
   <si>
-    <t>GaluaPulemet6@gmail.com</t>
-  </si>
-  <si>
     <t>GaluaPulemet7</t>
   </si>
   <si>
-    <t>GaluaPulemet7@gmail.com</t>
-  </si>
-  <si>
     <t>GaluaPulemet8</t>
   </si>
   <si>
-    <t>GaluaPulemet8@gmail.com</t>
-  </si>
-  <si>
     <t>GaluaPulemet9</t>
   </si>
   <si>
-    <t>GaluaPulemet9@gmail.com</t>
-  </si>
-  <si>
-    <t>Magnifikate77</t>
-  </si>
-  <si>
-    <t>Magnifikate77@gmail.com</t>
-  </si>
-  <si>
     <t>Petrovich200777</t>
+  </si>
+  <si>
+    <t>GaluaPulemet72</t>
+  </si>
+  <si>
+    <t>GaluaPulemet82</t>
+  </si>
+  <si>
+    <t>GaluaPulemet92</t>
+  </si>
+  <si>
+    <t>Magnifikate772</t>
+  </si>
+  <si>
+    <t>GaluaPulemet72@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet82@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet92@gmail.com</t>
+  </si>
+  <si>
+    <t>Magnifikate772@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet64</t>
+  </si>
+  <si>
+    <t>GaluaPulemet64@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -611,7 +623,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -659,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -688,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -706,10 +718,10 @@
         <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -717,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -735,10 +747,10 @@
         <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -764,10 +776,10 @@
         <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +790,7 @@
         <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>
@@ -793,7 +805,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>60</v>

--- a/xlsx/Test.xlsx
+++ b/xlsx/Test.xlsx
@@ -249,34 +249,34 @@
     <t>Petrovich200777</t>
   </si>
   <si>
-    <t>GaluaPulemet72</t>
-  </si>
-  <si>
-    <t>GaluaPulemet82</t>
-  </si>
-  <si>
-    <t>GaluaPulemet92</t>
-  </si>
-  <si>
-    <t>Magnifikate772</t>
-  </si>
-  <si>
-    <t>GaluaPulemet72@gmail.com</t>
-  </si>
-  <si>
-    <t>GaluaPulemet82@gmail.com</t>
-  </si>
-  <si>
-    <t>GaluaPulemet92@gmail.com</t>
-  </si>
-  <si>
     <t>Magnifikate772@gmail.com</t>
   </si>
   <si>
-    <t>GaluaPulemet64</t>
-  </si>
-  <si>
-    <t>GaluaPulemet64@gmail.com</t>
+    <t>GaluaPulemet644</t>
+  </si>
+  <si>
+    <t>GaluaPulemet724</t>
+  </si>
+  <si>
+    <t>GaluaPulemet824</t>
+  </si>
+  <si>
+    <t>GaluaPulemet924</t>
+  </si>
+  <si>
+    <t>Magnifikate7724</t>
+  </si>
+  <si>
+    <t>GaluaPulemet644@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet724@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet824@gmail.com</t>
+  </si>
+  <si>
+    <t>GaluaPulemet924@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -700,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>26</v>
@@ -729,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>26</v>
@@ -758,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>26</v>
@@ -787,10 +787,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>28</v>

--- a/xlsx/Test.xlsx
+++ b/xlsx/Test.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>login</t>
   </si>
@@ -277,12 +278,34 @@
   </si>
   <si>
     <t>GaluaPulemet924@gmail.com</t>
+  </si>
+  <si>
+    <t>inputName</t>
+  </si>
+  <si>
+    <t>isPassed</t>
+  </si>
+  <si>
+    <t>IRC nick</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Email *</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Имя *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,13 +651,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.140625" style="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="4" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="true"/>
+    <col min="7" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,4 +1105,49 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>